--- a/medicine/Enfance/Jeanne_Ashbé/Jeanne_Ashbé.xlsx
+++ b/medicine/Enfance/Jeanne_Ashbé/Jeanne_Ashbé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeanne_Ashb%C3%A9</t>
+          <t>Jeanne_Ashbé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanne Ashbé, née le 6 novembre 1955 à Bruxelles, est une autrice et illustratrice belge de littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeanne_Ashb%C3%A9</t>
+          <t>Jeanne_Ashbé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jeanne Ashbé est diplômée en orthophonie. Elle suit également les cours aux Beaux-Arts. Elle part travailler dans un hôpital pour enfants au Québec[1]. De retour en Belgique, elle écrit et illustre des albums notamment pour les enfants de 0 à 3 ans[2]. Elle développe la littérature jeunesse pour les très jeunes enfants alors que le langage n'est pas encore acquis[3]. La production de Jeanne Ashbé marque l’histoire de la littérature jeunesse en montrant l'importance de la lecture chez les tout-petits[4]. Elle insiste beaucoup sur la mise en mouvement de la pensée de l'enfant en affirmant que ce mouvement de balancier entre le réel et l’imaginaire est ce qui va porter l'enfant durant sa vie, sa capacité à imaginer le monde, un monde meilleur dans lequel il va pouvoir prendre sa place[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeanne Ashbé est diplômée en orthophonie. Elle suit également les cours aux Beaux-Arts. Elle part travailler dans un hôpital pour enfants au Québec. De retour en Belgique, elle écrit et illustre des albums notamment pour les enfants de 0 à 3 ans. Elle développe la littérature jeunesse pour les très jeunes enfants alors que le langage n'est pas encore acquis. La production de Jeanne Ashbé marque l’histoire de la littérature jeunesse en montrant l'importance de la lecture chez les tout-petits. Elle insiste beaucoup sur la mise en mouvement de la pensée de l'enfant en affirmant que ce mouvement de balancier entre le réel et l’imaginaire est ce qui va porter l'enfant durant sa vie, sa capacité à imaginer le monde, un monde meilleur dans lequel il va pouvoir prendre sa place.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeanne_Ashb%C3%A9</t>
+          <t>Jeanne_Ashbé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1996 : Prix Pitchou[6], pour Et pit et pat à quatre pattes 
-1998 : Prix Sorcières, Association des bibliothécaires de France pour Et dedans il y a.... [7]
-2001 : Prix Auteur Jeunesse de la Scam[8], pour l'ensemble de son œuvre
-2002 : (international) « Honour List »[9] de l' IBBY pour Le vélo rose
-2011 : Prix Libbylit[10] décerné par l' IBBY, catégorie Album petite enfance, pour Ton histoire
-2022 :  Premio nazionale Nati per Leggere[11] du Salon international du livre (Turin) pour Le bain et Le repas</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1996 : Prix Pitchou, pour Et pit et pat à quatre pattes 
+1998 : Prix Sorcières, Association des bibliothécaires de France pour Et dedans il y a.... 
+2001 : Prix Auteur Jeunesse de la Scam, pour l'ensemble de son œuvre
+2002 : (international) « Honour List » de l' IBBY pour Le vélo rose
+2011 : Prix Libbylit décerné par l' IBBY, catégorie Album petite enfance, pour Ton histoire
+2022 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Le bain et Le repas</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeanne_Ashb%C3%A9</t>
+          <t>Jeanne_Ashbé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Années 1990 et 2000
+          <t>Années 1990 et 2000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 On ne peut pas ! , École des loisirs, 1994
 Bonjour !, École des loisirs, 1994
 Ça va mieux !, École des loisirs, 1994
@@ -627,7 +649,43 @@
 Pas de loup, École des loisirs, 2008
 Non !, École des loisirs, 2008
 Le grand voyage de Pitipote, Bayard Jeunesse, 2009
-Années 2010 et 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeanne_Ashbé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanne_Ashb%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Années 2010 et 2020</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lou et Mouf. Lou a soif !, École des loisirs, 2010
 Ton histoire, École des loisirs, 2010
 Zipette et Pigolin, Bayard Jeunesse, 2010
